--- a/analysis/thalamus/figures_tables/sdmt_regressions/thalamic_nuclei_normed.xlsx
+++ b/analysis/thalamus/figures_tables/sdmt_regressions/thalamic_nuclei_normed.xlsx
@@ -482,30 +482,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1999766778928495</v>
+        <v>0.2115065605247893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04714781498348816</v>
+        <v>0.04671722071648312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1160888413228</v>
+        <v>0.1287735968417004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2838645144628989</v>
+        <v>0.2942395242078783</v>
       </c>
       <c r="F2" t="n">
-        <v>3.721612187504288e-06</v>
+        <v>7.311663431511014e-07</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.116089, 0.283865]</t>
+          <t>[0.128774, 0.294240]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.240537395834763e-05</v>
+        <v>2.437221143837005e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2045143022650975</v>
+        <v>0.1998977674539218</v>
       </c>
     </row>
     <row r="3">
@@ -515,30 +515,30 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1807533869772638</v>
+        <v>0.1797068878805139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0446080916332925</v>
+        <v>0.04449320763887765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08886632091951591</v>
+        <v>0.08819925305372718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2726404530350117</v>
+        <v>0.2712145227073006</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001270633756106978</v>
+        <v>0.0001302957862640439</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.088866, 0.272640]</t>
+          <t>[0.088199, 0.271215]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.0003176584390267444</v>
+        <v>0.0003257394656601097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1816460253048925</v>
+        <v>0.1820519529924675</v>
       </c>
     </row>
     <row r="4">
@@ -548,30 +548,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1297548597603769</v>
+        <v>0.1412199187793591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04516117342817903</v>
+        <v>0.04513358129687007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04482321330598209</v>
+        <v>0.05610944946895247</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2146865062147717</v>
+        <v>0.2263303880897657</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00282805763955246</v>
+        <v>0.001195274261907542</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.044823, 0.214687]</t>
+          <t>[0.056109, 0.226330]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.0047134293992541</v>
+        <v>0.001992123769845903</v>
       </c>
       <c r="I4" t="n">
-        <v>0.188077050200627</v>
+        <v>0.1744669978315754</v>
       </c>
     </row>
     <row r="5">
@@ -581,30 +581,30 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01964488293329564</v>
+        <v>0.0233268744879059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05039056348367477</v>
+        <v>0.05114817896172121</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06544037723175744</v>
+        <v>-0.06007760678763249</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1047301430983487</v>
+        <v>0.1067313557634443</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6502259318266539</v>
+        <v>0.5828316328520776</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[-0.065440, 0.104730]</t>
+          <t>[-0.060078, 0.106731]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.722473257585171</v>
+        <v>0.6475907031689752</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1533052388988444</v>
+        <v>0.1554848851446649</v>
       </c>
     </row>
     <row r="6">
@@ -614,30 +614,30 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.002775134214421809</v>
+        <v>-0.0001061136831639741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04250195679289411</v>
+        <v>0.04358958340620354</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09075382110070228</v>
+        <v>-0.08689217783165247</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08520355267185865</v>
+        <v>0.08667995046532452</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9505973138529855</v>
+        <v>0.9980838056030988</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[-0.090754, 0.085204]</t>
+          <t>[-0.086892, 0.086680]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9505973138529855</v>
+        <v>0.9980838056030988</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1533009407955951</v>
+        <v>0.1549166503906168</v>
       </c>
     </row>
     <row r="7">
@@ -647,30 +647,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02920360517997821</v>
+        <v>-0.04727669180911926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04790135383381089</v>
+        <v>0.0474699661492914</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1206363120811829</v>
+        <v>-0.1346024315145062</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06222910172122648</v>
+        <v>0.04004904789626772</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5305131064776856</v>
+        <v>0.2879188455581731</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.120636, 0.062229]</t>
+          <t>[-0.134602, 0.040049]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6631413830971069</v>
+        <v>0.3598985569477164</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1565401285576744</v>
+        <v>0.157041889124139</v>
       </c>
     </row>
     <row r="8">
@@ -680,30 +680,30 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0844821452943857</v>
+        <v>-0.09754244870915779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04710280756950522</v>
+        <v>0.04709846739608348</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1757599669537791</v>
+        <v>-0.1861884955828685</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006795676365007719</v>
+        <v>-0.008896401835447085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06958513035643363</v>
+        <v>0.03110757581313206</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[-0.175760, 0.006796]</t>
+          <t>[-0.186188, -0.008896]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.09940732908061947</v>
+        <v>0.04443939401876009</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1625999475005159</v>
+        <v>0.1636275314832462</v>
       </c>
     </row>
     <row r="9">
@@ -713,30 +713,30 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1797244576964284</v>
+        <v>-0.1738438492968309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05093883659106892</v>
+        <v>0.04853313369735185</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2758010172838191</v>
+        <v>-0.2641612968499724</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08364789810903771</v>
+        <v>-0.0835264017436894</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00026536260125766</v>
+        <v>0.0001761020942703277</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[-0.275801, -0.083648]</t>
+          <t>[-0.264161, -0.083526]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.0005307252025153201</v>
+        <v>0.0003522041885406554</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1780660699325934</v>
+        <v>0.1810168874306272</v>
       </c>
     </row>
     <row r="10">
@@ -746,30 +746,30 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2266770433246008</v>
+        <v>-0.2600496812873299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0504910952106558</v>
+        <v>0.04516393192496281</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3150938741124787</v>
+        <v>-0.3433872444834503</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1382602125367229</v>
+        <v>-0.1767121180912095</v>
       </c>
       <c r="F10" t="n">
-        <v>6.824858349973341e-07</v>
+        <v>1.898523857656286e-09</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[-0.315094, -0.138260]</t>
+          <t>[-0.343387, -0.176712]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.41242917498667e-06</v>
+        <v>9.492619288281432e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2290226752821009</v>
+        <v>0.2202285967186424</v>
       </c>
     </row>
     <row r="11">
@@ -779,30 +779,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2626045261106594</v>
+        <v>-0.2905507597780779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0496931228718899</v>
+        <v>0.04332117329513474</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3505004040842492</v>
+        <v>-0.3730231057122575</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1747086481370695</v>
+        <v>-0.2080784138438984</v>
       </c>
       <c r="F11" t="n">
-        <v>8.425506537656377e-09</v>
+        <v>1.529368107078942e-11</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[-0.350500, -0.174709]</t>
+          <t>[-0.373023, -0.208078]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8.425506537656378e-08</v>
+        <v>1.529368107078942e-10</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2433381572464948</v>
+        <v>0.2364370773307026</v>
       </c>
     </row>
   </sheetData>
